--- a/Risikovurdering.xlsx
+++ b/Risikovurdering.xlsx
@@ -337,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -354,6 +354,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +643,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,10 +899,10 @@
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>7.5</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>0.2</v>
       </c>
       <c r="D15" s="11">
